--- a/csv_file/ДЛЯ_CSV.xlsx
+++ b/csv_file/ДЛЯ_CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\ДПО\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA41D013-10DC-4579-AF59-BE3106387E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E454CE7D-F281-4387-A5EB-85B2B708B087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,13 +204,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -496,10 +496,15 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>

--- a/csv_file/ДЛЯ_CSV.xlsx
+++ b/csv_file/ДЛЯ_CSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\ДПО\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E454CE7D-F281-4387-A5EB-85B2B708B087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D909614B-7DBE-4E4A-AE7A-BD72819FD04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>коэффициенты</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Энергопотрбление</t>
+  </si>
+  <si>
+    <t>gpu</t>
   </si>
 </sst>
 </file>
@@ -86,14 +89,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,12 +105,19 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -134,83 +136,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -496,7 +443,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,293 +453,296 @@
     <col min="8" max="10" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>8</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>40</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>160</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>480</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>960</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>1920</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>3840</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>7680</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>2.0638299999999998</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1395.4639999999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>6977.32</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>27909.277999999998</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>83727.835000000006</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>167455.70000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>334911.3</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>669822.69999999995</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>1339645.3999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>1.7021280000000001</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>1311.4880000000001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>6557.44</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>26229.759999999998</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>78689.279999999999</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>157378.6</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>314757.09999999998</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>629514.19999999995</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>1259028.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>1.7021280000000001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>705</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>3525</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>14100</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>42300</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>84600</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>169200</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>338400</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>676800</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>1.6595740000000001</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>668.21950000000004</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>3341.0970000000002</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>13364.39</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>40093.169000000002</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>80186.34</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>160372.70000000001</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>320745.40000000002</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>641490.71</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>2.0638299999999998</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>813.82680000000005</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>4069.134</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>16276.536</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>48829.608</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>97659.22</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>195318.39999999999</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>390636.9</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>781273.73</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>0.25531900000000002</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>1566.6669999999999</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>7833.3329999999996</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>31333.332999999999</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>94000</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>188000</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>376000</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>752000</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>1504000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>4.0810000000000004</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>32.648000000000003</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>163.24</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>652.96</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>1958.88</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>3917.76</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>7835.52</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>15671.04</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>31342.080000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>